--- a/data/ram.xlsx
+++ b/data/ram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASPDAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\tex\GSVLSI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
   <si>
     <t>bitwidth (B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,10 @@
   </si>
   <si>
     <t>Leakage (uW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area(um^2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,8 +1500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1523,19 +1542,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1572,15 +1579,23 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="8">
+          <cell r="O8"/>
+        </row>
         <row r="9">
           <cell r="N9">
             <v>2.75</v>
           </cell>
+          <cell r="O9"/>
         </row>
         <row r="10">
           <cell r="N10">
             <v>2.375</v>
           </cell>
+        </row>
+        <row r="11">
+          <cell r="N11"/>
+          <cell r="O11"/>
         </row>
         <row r="12">
           <cell r="N12" t="str">
@@ -1596,41 +1611,49 @@
           <cell r="N14" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O14"/>
         </row>
         <row r="15">
           <cell r="N15" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O15"/>
         </row>
         <row r="16">
           <cell r="N16" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O16"/>
         </row>
         <row r="17">
           <cell r="N17" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O17"/>
         </row>
         <row r="18">
           <cell r="N18" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O18"/>
         </row>
         <row r="20">
           <cell r="N20" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O20"/>
         </row>
         <row r="21">
           <cell r="N21" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O21"/>
         </row>
         <row r="23">
           <cell r="N23" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O23"/>
         </row>
         <row r="24">
           <cell r="N24" t="str">
@@ -1646,51 +1669,63 @@
           <cell r="N26" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O26"/>
         </row>
         <row r="27">
           <cell r="N27" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O27"/>
         </row>
         <row r="28">
           <cell r="N28" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O28"/>
         </row>
         <row r="29">
           <cell r="N29" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O29"/>
         </row>
         <row r="30">
           <cell r="N30" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O30"/>
         </row>
         <row r="31">
           <cell r="N31" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O31"/>
         </row>
         <row r="32">
           <cell r="N32" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O32"/>
         </row>
         <row r="33">
           <cell r="N33" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O33"/>
         </row>
         <row r="34">
           <cell r="N34" t="str">
             <v>tbd</v>
           </cell>
+          <cell r="O34"/>
         </row>
         <row r="35">
           <cell r="N35" t="str">
             <v>tbd</v>
           </cell>
+        </row>
+        <row r="39">
+          <cell r="N39"/>
         </row>
         <row r="40">
           <cell r="N40">
@@ -1701,11 +1736,16 @@
           <cell r="N41">
             <v>2.5</v>
           </cell>
+          <cell r="O41"/>
         </row>
         <row r="42">
           <cell r="N42">
             <v>5.3</v>
           </cell>
+          <cell r="O42"/>
+        </row>
+        <row r="43">
+          <cell r="O43"/>
         </row>
       </sheetData>
       <sheetData sheetId="3">
@@ -1987,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1999,7 +2039,7 @@
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
@@ -2009,26 +2049,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2101,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
@@ -2099,7 +2139,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1">
         <v>32</v>
       </c>
@@ -2132,7 +2172,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1">
         <v>32</v>
       </c>
@@ -2165,7 +2205,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1">
         <v>32</v>
       </c>
@@ -2198,7 +2238,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1">
         <v>32</v>
       </c>
@@ -2231,7 +2271,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1">
@@ -2269,7 +2309,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -2302,7 +2342,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2335,7 +2375,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2368,7 +2408,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -2401,7 +2441,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="1">
@@ -2439,7 +2479,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="1">
         <v>32</v>
       </c>
@@ -2472,7 +2512,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="1">
         <v>32</v>
       </c>
@@ -2505,7 +2545,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="1">
         <v>32</v>
       </c>
@@ -2538,7 +2578,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="1">
         <v>32</v>
       </c>
@@ -2571,7 +2611,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
@@ -2609,7 +2649,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -2642,7 +2682,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -2675,7 +2715,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="1">
         <v>8</v>
       </c>
@@ -2708,7 +2748,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="1">
         <v>8</v>
       </c>
@@ -2785,7 +2825,7 @@
       <c r="I30" s="26">
         <v>195.286</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="38">
         <v>40</v>
       </c>
       <c r="K30" s="28"/>
@@ -2812,7 +2852,7 @@
       <c r="I31" s="26">
         <v>217.46799999999999</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="38">
         <v>41</v>
       </c>
       <c r="K31" s="29"/>
@@ -2839,7 +2879,7 @@
       <c r="I32" s="21">
         <v>260.07299999999998</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="39">
         <v>43</v>
       </c>
       <c r="K32" s="28"/>
@@ -2866,7 +2906,7 @@
       <c r="I33" s="21">
         <v>268.31900000000002</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="39">
         <v>53</v>
       </c>
       <c r="K33" s="28"/>
@@ -2891,7 +2931,7 @@
       <c r="I34" s="21">
         <v>357.19</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="39">
         <v>78</v>
       </c>
       <c r="K34" s="28"/>
@@ -2916,7 +2956,7 @@
       <c r="I35" s="26">
         <v>0.55600000000000005</v>
       </c>
-      <c r="J35" s="49">
+      <c r="J35" s="38">
         <v>1.34</v>
       </c>
       <c r="K35" s="29"/>
@@ -2943,7 +2983,7 @@
       <c r="I36" s="26">
         <v>1.3149999999999999</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="38">
         <v>2.7</v>
       </c>
       <c r="K36" s="29"/>
@@ -2970,7 +3010,7 @@
       <c r="I37" s="26">
         <v>3.7770000000000001</v>
       </c>
-      <c r="J37" s="49">
+      <c r="J37" s="38">
         <v>6</v>
       </c>
       <c r="K37" s="29"/>
@@ -2997,7 +3037,7 @@
       <c r="I38" s="26">
         <v>2.7919999999999998</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J38" s="38">
         <v>11.53</v>
       </c>
       <c r="K38" s="29"/>
@@ -3022,7 +3062,7 @@
       <c r="I39" s="26">
         <v>6.4240000000000004</v>
       </c>
-      <c r="J39" s="49">
+      <c r="J39" s="38">
         <v>23.06</v>
       </c>
       <c r="K39" s="29"/>
@@ -3037,17 +3077,17 @@
       <c r="E40" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="41">
         <v>3.2</v>
       </c>
-      <c r="G40" s="38"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="26">
         <v>80.3</v>
       </c>
       <c r="I40" s="26">
         <v>82.718999999999994</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="40">
         <v>52800</v>
       </c>
       <c r="K40" s="1"/>
@@ -3145,6 +3185,23 @@
       </c>
       <c r="I54" s="1">
         <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E55" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="52">
+        <v>57.673000000000002</v>
+      </c>
+      <c r="G55" s="52">
+        <v>103.432</v>
+      </c>
+      <c r="H55" s="52">
+        <v>188.714</v>
+      </c>
+      <c r="I55" s="52">
+        <v>354.13799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3175,45 +3232,45 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="47"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3681,7 +3738,7 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="e">
@@ -3755,7 +3812,7 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -3827,7 +3884,7 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -3899,7 +3956,7 @@
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="e">
@@ -3973,7 +4030,7 @@
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4045,7 +4102,7 @@
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4" t="e">
@@ -4119,7 +4176,7 @@
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4191,7 +4248,7 @@
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="e">
@@ -4265,7 +4322,7 @@
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4337,7 +4394,7 @@
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="4" t="e">
@@ -4411,7 +4468,7 @@
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4483,7 +4540,7 @@
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4555,7 +4612,7 @@
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="4" t="e">
@@ -4629,7 +4686,7 @@
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4701,7 +4758,7 @@
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4773,7 +4830,7 @@
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4" t="e">
@@ -4847,7 +4904,7 @@
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4919,7 +4976,7 @@
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="4" t="e">
@@ -4993,7 +5050,7 @@
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5065,7 +5122,7 @@
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="39"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5137,7 +5194,7 @@
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="4" t="e">
@@ -5211,7 +5268,7 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="39"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5283,7 +5340,7 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="39"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5355,7 +5412,7 @@
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="e">
@@ -5429,7 +5486,7 @@
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="39"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5501,7 +5558,7 @@
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="e">
@@ -5575,7 +5632,7 @@
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="39"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5803,7 +5860,7 @@
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="4" t="e">
@@ -5877,7 +5934,7 @@
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!))</f>
         <v>#REF!</v>
@@ -5949,7 +6006,7 @@
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="e">
@@ -6023,7 +6080,7 @@
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!))</f>
         <v>#REF!</v>
@@ -8104,6 +8161,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C21:C23"/>
@@ -8112,14 +8175,9 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ram.xlsx
+++ b/data/ram.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>bitwidth (B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1106,6 +1106,10 @@
   </si>
   <si>
     <t>area(um^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leakage(nW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,12 +1516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,8 +1540,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3188,20 +3189,37 @@
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="36">
         <v>57.673000000000002</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="36">
         <v>103.432</v>
       </c>
-      <c r="H55" s="52">
+      <c r="H55" s="36">
         <v>188.714</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="36">
         <v>354.13799999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E56" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="36">
+        <v>6.1619999999999999</v>
+      </c>
+      <c r="G56" s="36">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="H56" s="36">
+        <v>22.385000000000002</v>
+      </c>
+      <c r="I56" s="36">
+        <v>44.823</v>
       </c>
     </row>
   </sheetData>
@@ -3232,45 +3250,45 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3738,7 +3756,7 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="e">
@@ -3812,7 +3830,7 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="44"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -3884,7 +3902,7 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="44"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -3956,7 +3974,7 @@
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="e">
@@ -4030,7 +4048,7 @@
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="44"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4102,7 +4120,7 @@
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4" t="e">
@@ -4176,7 +4194,7 @@
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4248,7 +4266,7 @@
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="e">
@@ -4322,7 +4340,7 @@
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4394,7 +4412,7 @@
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="4" t="e">
@@ -4468,7 +4486,7 @@
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="44"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4540,7 +4558,7 @@
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4612,7 +4630,7 @@
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="4" t="e">
@@ -4686,7 +4704,7 @@
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4758,7 +4776,7 @@
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4830,7 +4848,7 @@
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4" t="e">
@@ -4904,7 +4922,7 @@
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -4976,7 +4994,7 @@
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="4" t="e">
@@ -5050,7 +5068,7 @@
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="44"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5122,7 +5140,7 @@
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5194,7 +5212,7 @@
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="4" t="e">
@@ -5268,7 +5286,7 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="44"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5340,7 +5358,7 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="44"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5412,7 +5430,7 @@
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="e">
@@ -5486,7 +5504,7 @@
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="44"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5558,7 +5576,7 @@
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="e">
@@ -5632,7 +5650,7 @@
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="44"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=3,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!)))</f>
         <v>#REF!</v>
@@ -5860,7 +5878,7 @@
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="4" t="e">
@@ -5934,7 +5952,7 @@
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!))</f>
         <v>#REF!</v>
@@ -6006,7 +6024,7 @@
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="50" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="e">
@@ -6080,7 +6098,7 @@
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="4" t="e">
         <f>IF('[1]DDR4 Config'!$H$1=1,'[1]DDR4 Spec'!#REF!,IF('[1]DDR4 Config'!$H$1=2,'[1]DDR4 Spec'!#REF!,'[1]DDR4 Spec'!#REF!))</f>
         <v>#REF!</v>
@@ -8161,12 +8179,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C21:C23"/>
@@ -8175,6 +8187,12 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
